--- a/ig/ch-epr-fhir/StructureDefinition-CH-ATC.ITI-81.Response.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-CH-ATC.ITI-81.Response.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -367,7 +367,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -7927,7 +7927,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>273</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>311</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>346</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="151" hidden="true">
+    <row r="151">
       <c r="A151" t="s" s="2">
         <v>381</v>
       </c>
@@ -22431,7 +22431,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="183" hidden="true">
+    <row r="183">
       <c r="A183" t="s" s="2">
         <v>416</v>
       </c>
@@ -25493,12 +25493,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN209">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
